--- a/Excel-XLSX/UN-TUN.xlsx
+++ b/Excel-XLSX/UN-TUN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="744">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>vCarR5</t>
+    <t>G9xx2e</t>
   </si>
   <si>
     <t>1951</t>
@@ -2166,97 +2166,88 @@
     <t>498</t>
   </si>
   <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>5894</t>
+  </si>
+  <si>
     <t>524</t>
   </si>
   <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>1518</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>1199</t>
+    <t>2390</t>
   </si>
   <si>
     <t>525</t>
   </si>
   <si>
-    <t>7706</t>
-  </si>
-  <si>
     <t>526</t>
   </si>
   <si>
-    <t>3010</t>
-  </si>
-  <si>
     <t>527</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>529</t>
   </si>
 </sst>
 </file>
@@ -2641,7 +2632,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V530"/>
+  <dimension ref="A1:V528"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -36214,10 +36205,10 @@
         <v>31</v>
       </c>
       <c r="N494" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O494" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="P494" s="2" t="s">
         <v>33</v>
@@ -36285,7 +36276,7 @@
         <v>33</v>
       </c>
       <c r="O495" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="P495" s="2" t="s">
         <v>33</v>
@@ -36421,7 +36412,7 @@
         <v>33</v>
       </c>
       <c r="O497" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="P497" s="2" t="s">
         <v>33</v>
@@ -36486,10 +36477,10 @@
         <v>31</v>
       </c>
       <c r="N498" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O498" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="P498" s="2" t="s">
         <v>33</v>
@@ -36554,10 +36545,10 @@
         <v>31</v>
       </c>
       <c r="N499" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O499" s="2" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="P499" s="2" t="s">
         <v>33</v>
@@ -36625,7 +36616,7 @@
         <v>42</v>
       </c>
       <c r="O500" s="2" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="P500" s="2" t="s">
         <v>33</v>
@@ -36690,10 +36681,10 @@
         <v>31</v>
       </c>
       <c r="N501" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="O501" s="2" t="s">
-        <v>716</v>
+        <v>447</v>
       </c>
       <c r="P501" s="2" t="s">
         <v>33</v>
@@ -36728,7 +36719,7 @@
         <v>22</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>709</v>
@@ -36761,7 +36752,7 @@
         <v>33</v>
       </c>
       <c r="O502" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="P502" s="2" t="s">
         <v>33</v>
@@ -36796,7 +36787,7 @@
         <v>22</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>709</v>
@@ -36826,10 +36817,10 @@
         <v>31</v>
       </c>
       <c r="N503" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O503" s="2" t="s">
-        <v>457</v>
+        <v>118</v>
       </c>
       <c r="P503" s="2" t="s">
         <v>33</v>
@@ -36864,7 +36855,7 @@
         <v>22</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>709</v>
@@ -36894,10 +36885,10 @@
         <v>31</v>
       </c>
       <c r="N504" s="2" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="O504" s="2" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="P504" s="2" t="s">
         <v>33</v>
@@ -36962,10 +36953,10 @@
         <v>31</v>
       </c>
       <c r="N505" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="O505" s="2" t="s">
-        <v>507</v>
+        <v>384</v>
       </c>
       <c r="P505" s="2" t="s">
         <v>33</v>
@@ -37000,7 +36991,7 @@
         <v>22</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>709</v>
@@ -37033,7 +37024,7 @@
         <v>33</v>
       </c>
       <c r="O506" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="P506" s="2" t="s">
         <v>33</v>
@@ -37068,7 +37059,7 @@
         <v>22</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>709</v>
@@ -37098,10 +37089,10 @@
         <v>31</v>
       </c>
       <c r="N507" s="2" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="O507" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="P507" s="2" t="s">
         <v>33</v>
@@ -37136,7 +37127,7 @@
         <v>22</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>709</v>
@@ -37169,7 +37160,7 @@
         <v>33</v>
       </c>
       <c r="O508" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="P508" s="2" t="s">
         <v>33</v>
@@ -37204,7 +37195,7 @@
         <v>22</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>709</v>
@@ -37234,10 +37225,10 @@
         <v>31</v>
       </c>
       <c r="N509" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O509" s="2" t="s">
-        <v>422</v>
+        <v>186</v>
       </c>
       <c r="P509" s="2" t="s">
         <v>33</v>
@@ -37272,7 +37263,7 @@
         <v>22</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>709</v>
@@ -37302,10 +37293,10 @@
         <v>31</v>
       </c>
       <c r="N510" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="O510" s="2" t="s">
-        <v>725</v>
+        <v>545</v>
       </c>
       <c r="P510" s="2" t="s">
         <v>33</v>
@@ -37346,16 +37337,16 @@
         <v>709</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J511" s="2" t="s">
         <v>29</v>
@@ -37370,10 +37361,10 @@
         <v>31</v>
       </c>
       <c r="N511" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O511" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="P511" s="2" t="s">
         <v>33</v>
@@ -37408,22 +37399,22 @@
         <v>22</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="J512" s="2" t="s">
         <v>29</v>
@@ -37438,10 +37429,10 @@
         <v>31</v>
       </c>
       <c r="N512" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="O512" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="P512" s="2" t="s">
         <v>33</v>
@@ -37476,22 +37467,22 @@
         <v>22</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="H513" s="1" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J513" s="2" t="s">
         <v>29</v>
@@ -37509,7 +37500,7 @@
         <v>33</v>
       </c>
       <c r="O513" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="P513" s="2" t="s">
         <v>33</v>
@@ -37544,22 +37535,22 @@
         <v>22</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="J514" s="2" t="s">
         <v>29</v>
@@ -37574,10 +37565,10 @@
         <v>31</v>
       </c>
       <c r="N514" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="O514" s="2" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="P514" s="2" t="s">
         <v>33</v>
@@ -37612,22 +37603,22 @@
         <v>22</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>322</v>
+        <v>472</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>322</v>
+        <v>473</v>
       </c>
       <c r="J515" s="2" t="s">
         <v>29</v>
@@ -37642,10 +37633,10 @@
         <v>31</v>
       </c>
       <c r="N515" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="O515" s="2" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="P515" s="2" t="s">
         <v>33</v>
@@ -37680,22 +37671,22 @@
         <v>22</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>471</v>
+        <v>559</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>472</v>
+        <v>560</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>473</v>
+        <v>561</v>
       </c>
       <c r="J516" s="2" t="s">
         <v>29</v>
@@ -37710,10 +37701,10 @@
         <v>31</v>
       </c>
       <c r="N516" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O516" s="2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="P516" s="2" t="s">
         <v>33</v>
@@ -37748,22 +37739,22 @@
         <v>22</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>693</v>
+        <v>326</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>694</v>
+        <v>327</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>694</v>
+        <v>327</v>
       </c>
       <c r="J517" s="2" t="s">
         <v>29</v>
@@ -37778,10 +37769,10 @@
         <v>31</v>
       </c>
       <c r="N517" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O517" s="2" t="s">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="P517" s="2" t="s">
         <v>33</v>
@@ -37816,22 +37807,22 @@
         <v>22</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="J518" s="2" t="s">
         <v>29</v>
@@ -37849,7 +37840,7 @@
         <v>33</v>
       </c>
       <c r="O518" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="P518" s="2" t="s">
         <v>33</v>
@@ -37884,22 +37875,22 @@
         <v>22</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>326</v>
+        <v>119</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>327</v>
+        <v>120</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>327</v>
+        <v>121</v>
       </c>
       <c r="J519" s="2" t="s">
         <v>29</v>
@@ -37914,10 +37905,10 @@
         <v>31</v>
       </c>
       <c r="N519" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="O519" s="2" t="s">
-        <v>382</v>
+        <v>462</v>
       </c>
       <c r="P519" s="2" t="s">
         <v>33</v>
@@ -37952,22 +37943,22 @@
         <v>22</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="J520" s="2" t="s">
         <v>29</v>
@@ -37985,7 +37976,7 @@
         <v>33</v>
       </c>
       <c r="O520" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="P520" s="2" t="s">
         <v>33</v>
@@ -38020,22 +38011,22 @@
         <v>22</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="J521" s="2" t="s">
         <v>29</v>
@@ -38050,10 +38041,10 @@
         <v>31</v>
       </c>
       <c r="N521" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="O521" s="2" t="s">
-        <v>653</v>
+        <v>272</v>
       </c>
       <c r="P521" s="2" t="s">
         <v>33</v>
@@ -38088,22 +38079,22 @@
         <v>22</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>515</v>
+        <v>123</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>516</v>
+        <v>124</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>516</v>
+        <v>124</v>
       </c>
       <c r="J522" s="2" t="s">
         <v>29</v>
@@ -38118,13 +38109,13 @@
         <v>31</v>
       </c>
       <c r="N522" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="O522" s="2" t="s">
-        <v>103</v>
+        <v>735</v>
       </c>
       <c r="P522" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q522" s="2" t="s">
         <v>33</v>
@@ -38156,22 +38147,22 @@
         <v>22</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>240</v>
+        <v>520</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>241</v>
+        <v>521</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>241</v>
+        <v>521</v>
       </c>
       <c r="J523" s="2" t="s">
         <v>29</v>
@@ -38186,10 +38177,10 @@
         <v>31</v>
       </c>
       <c r="N523" s="2" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="O523" s="2" t="s">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="P523" s="2" t="s">
         <v>33</v>
@@ -38224,22 +38215,22 @@
         <v>22</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>124</v>
+        <v>341</v>
       </c>
       <c r="J524" s="2" t="s">
         <v>29</v>
@@ -38254,10 +38245,10 @@
         <v>31</v>
       </c>
       <c r="N524" s="2" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="O524" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P524" s="2" t="s">
         <v>33</v>
@@ -38292,22 +38283,22 @@
         <v>22</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>520</v>
+        <v>128</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>521</v>
+        <v>129</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>521</v>
+        <v>129</v>
       </c>
       <c r="J525" s="2" t="s">
         <v>29</v>
@@ -38322,10 +38313,10 @@
         <v>31</v>
       </c>
       <c r="N525" s="2" t="s">
-        <v>134</v>
+        <v>740</v>
       </c>
       <c r="O525" s="2" t="s">
-        <v>670</v>
+        <v>33</v>
       </c>
       <c r="P525" s="2" t="s">
         <v>33</v>
@@ -38360,22 +38351,22 @@
         <v>22</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>339</v>
+        <v>574</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>340</v>
+        <v>575</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>341</v>
+        <v>576</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>29</v>
@@ -38390,10 +38381,10 @@
         <v>31</v>
       </c>
       <c r="N526" s="2" t="s">
-        <v>392</v>
+        <v>33</v>
       </c>
       <c r="O526" s="2" t="s">
-        <v>741</v>
+        <v>42</v>
       </c>
       <c r="P526" s="2" t="s">
         <v>33</v>
@@ -38434,16 +38425,16 @@
         <v>709</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>128</v>
+        <v>664</v>
       </c>
       <c r="H527" s="1" t="s">
-        <v>129</v>
+        <v>665</v>
       </c>
       <c r="I527" s="1" t="s">
-        <v>129</v>
+        <v>665</v>
       </c>
       <c r="J527" s="2" t="s">
         <v>29</v>
@@ -38458,10 +38449,10 @@
         <v>31</v>
       </c>
       <c r="N527" s="2" t="s">
-        <v>743</v>
+        <v>33</v>
       </c>
       <c r="O527" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P527" s="2" t="s">
         <v>33</v>
@@ -38496,22 +38487,22 @@
         <v>22</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>709</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>574</v>
+        <v>402</v>
       </c>
       <c r="H528" s="1" t="s">
-        <v>575</v>
+        <v>403</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>576</v>
+        <v>403</v>
       </c>
       <c r="J528" s="2" t="s">
         <v>29</v>
@@ -38526,10 +38517,10 @@
         <v>31</v>
       </c>
       <c r="N528" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O528" s="2" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="P528" s="2" t="s">
         <v>33</v>
@@ -38550,142 +38541,6 @@
         <v>34</v>
       </c>
       <c r="V528" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="E529" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G529" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="H529" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="I529" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="J529" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K529" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L529" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M529" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N529" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O529" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P529" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q529" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R529" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S529" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T529" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U529" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V529" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="E530" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F530" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G530" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H530" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I530" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J530" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K530" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L530" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M530" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N530" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O530" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="P530" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q530" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R530" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S530" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T530" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U530" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V530" s="2" t="s">
         <v>33</v>
       </c>
     </row>
